--- a/excel/collective/zestawy_dla_uczniow/zestaw_023.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
   <si>
     <t>ZESTAW ZADAŃ NR 23 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Antoni Wójcik</t>
-  </si>
-  <si>
-    <t>Filip Kowalczyk</t>
-  </si>
-  <si>
-    <t>Wojciech Kowalczyk</t>
-  </si>
-  <si>
-    <t>Adam Nowak</t>
-  </si>
-  <si>
-    <t>Zuzanna Wójcik</t>
+    <t>Amelia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Mikołaj Wiśniewski</t>
+  </si>
+  <si>
+    <t>Zuzanna Bednarska</t>
+  </si>
+  <si>
+    <t>Lena Górska</t>
+  </si>
+  <si>
+    <t>Szymon Mazur</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>2,30</t>
+  </si>
+  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,30</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>9,40</t>
+    <t>1,50</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>6,00</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>4,90</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>2,10</t>
   </si>
   <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>0,80</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>3,80</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>21,10</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>7,10</t>
+    <t>2,00</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>27,12</t>
+    <t>25,82</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>22,00</t>
+    <t>24,19</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>7,64</t>
+    <t>19,43</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>19,23</t>
+    <t>13,81</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>24,46</t>
+    <t>10,99</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,16 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>15,80</t>
-  </si>
-  <si>
-    <t>23,73</t>
-  </si>
-  <si>
-    <t>12,06</t>
-  </si>
-  <si>
-    <t>4,50</t>
+    <t>14,01</t>
+  </si>
+  <si>
+    <t>4,72</t>
+  </si>
+  <si>
+    <t>6,52</t>
+  </si>
+  <si>
+    <t>4,44</t>
+  </si>
+  <si>
+    <t>10,37</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -271,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>12,86</t>
-  </si>
-  <si>
-    <t>25,27</t>
-  </si>
-  <si>
-    <t>16,98</t>
-  </si>
-  <si>
-    <t>29,22</t>
-  </si>
-  <si>
-    <t>24,23</t>
+    <t>26,16</t>
+  </si>
+  <si>
+    <t>3,08</t>
+  </si>
+  <si>
+    <t>10,86</t>
+  </si>
+  <si>
+    <t>13,32</t>
+  </si>
+  <si>
+    <t>9,67</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -337,31 +340,46 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Zieliński</t>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Lewandowski</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Borkowska</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Kozłowski</t>
+  </si>
+  <si>
+    <t>Grabowski</t>
   </si>
   <si>
     <t>Emilia</t>
   </si>
   <si>
-    <t>Lis</t>
-  </si>
-  <si>
-    <t>Sikorska</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Kowalski</t>
+    <t>Górska</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Kowalczyk</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -397,148 +415,148 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Mikołaj Kaczmarek</t>
-  </si>
-  <si>
-    <t>26.06.1988</t>
-  </si>
-  <si>
-    <t>7 078,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Wójcik</t>
-  </si>
-  <si>
-    <t>17.10.1984</t>
-  </si>
-  <si>
-    <t>8 219,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Lewandowski</t>
-  </si>
-  <si>
-    <t>01.10.2000</t>
-  </si>
-  <si>
-    <t>12 663,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Bednarska</t>
-  </si>
-  <si>
-    <t>27.11.2002</t>
-  </si>
-  <si>
-    <t>8 634,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Piotrowski</t>
-  </si>
-  <si>
-    <t>09.05.2004</t>
-  </si>
-  <si>
-    <t>7 932,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Kowalski</t>
-  </si>
-  <si>
-    <t>07.04.1994</t>
-  </si>
-  <si>
-    <t>12 296,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Lewandowski</t>
-  </si>
-  <si>
-    <t>12.05.1989</t>
-  </si>
-  <si>
-    <t>5 278,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Wiśniewski</t>
-  </si>
-  <si>
-    <t>15.10.1998</t>
-  </si>
-  <si>
-    <t>10 509,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Wójcik</t>
-  </si>
-  <si>
-    <t>02.03.1991</t>
-  </si>
-  <si>
-    <t>7 960,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Mazur</t>
-  </si>
-  <si>
-    <t>28.09.2002</t>
-  </si>
-  <si>
-    <t>3 111,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Maciejewska</t>
-  </si>
-  <si>
-    <t>26.11.1996</t>
-  </si>
-  <si>
-    <t>9 058,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Piekarska</t>
-  </si>
-  <si>
-    <t>13.06.2000</t>
-  </si>
-  <si>
-    <t>14 475,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Kaźmierczak</t>
-  </si>
-  <si>
-    <t>13.01.1999</t>
-  </si>
-  <si>
-    <t>4 566,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Nowak</t>
-  </si>
-  <si>
-    <t>09.08.1982</t>
-  </si>
-  <si>
-    <t>3 604,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Lewandowski</t>
-  </si>
-  <si>
-    <t>20.12.1977</t>
-  </si>
-  <si>
-    <t>10 961,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Kaczmarek</t>
-  </si>
-  <si>
-    <t>08.06.1989</t>
-  </si>
-  <si>
-    <t>11 084,00 zł</t>
+    <t>Anna Wilk</t>
+  </si>
+  <si>
+    <t>27.04.2000</t>
+  </si>
+  <si>
+    <t>3 764,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>15.01.1998</t>
+  </si>
+  <si>
+    <t>5 109,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Kubiak</t>
+  </si>
+  <si>
+    <t>10.01.1976</t>
+  </si>
+  <si>
+    <t>3 611,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Czarnecka</t>
+  </si>
+  <si>
+    <t>10.12.1988</t>
+  </si>
+  <si>
+    <t>6 306,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Zieliński</t>
+  </si>
+  <si>
+    <t>20.12.1997</t>
+  </si>
+  <si>
+    <t>14 387,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Kowalski</t>
+  </si>
+  <si>
+    <t>18.02.1983</t>
+  </si>
+  <si>
+    <t>9 313,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Borkowska</t>
+  </si>
+  <si>
+    <t>24.12.1981</t>
+  </si>
+  <si>
+    <t>4 637,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Jankowski</t>
+  </si>
+  <si>
+    <t>17.05.2000</t>
+  </si>
+  <si>
+    <t>6 390,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Piekarska</t>
+  </si>
+  <si>
+    <t>26.12.1986</t>
+  </si>
+  <si>
+    <t>13 028,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kaczmarek</t>
+  </si>
+  <si>
+    <t>09.05.1986</t>
+  </si>
+  <si>
+    <t>6 861,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Kowalski</t>
+  </si>
+  <si>
+    <t>22.02.1999</t>
+  </si>
+  <si>
+    <t>10 775,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Sikorska</t>
+  </si>
+  <si>
+    <t>06.07.1997</t>
+  </si>
+  <si>
+    <t>3 907,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Lis</t>
+  </si>
+  <si>
+    <t>11.02.1983</t>
+  </si>
+  <si>
+    <t>8 871,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Szymański</t>
+  </si>
+  <si>
+    <t>07.11.1987</t>
+  </si>
+  <si>
+    <t>2 813,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Król</t>
+  </si>
+  <si>
+    <t>21.04.1997</t>
+  </si>
+  <si>
+    <t>6 684,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Czarnecka</t>
+  </si>
+  <si>
+    <t>22.09.2002</t>
+  </si>
+  <si>
+    <t>7 467,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -610,337 +628,334 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 007,00 zł</t>
-  </si>
-  <si>
-    <t>1 299,00 zł</t>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 010,00 zł</t>
+  </si>
+  <si>
+    <t>1 212,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 440,00 zł</t>
+  </si>
+  <si>
+    <t>1 800,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>512,00 zł</t>
+  </si>
+  <si>
+    <t>686,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>576,00 zł</t>
+  </si>
+  <si>
+    <t>778,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 291,00 zł</t>
+  </si>
+  <si>
+    <t>1 446,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 087,00 zł</t>
+  </si>
+  <si>
+    <t>1 294,00 zł</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 138,00 zł</t>
+  </si>
+  <si>
+    <t>1 286,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>1 298,00 zł</t>
+  </si>
+  <si>
+    <t>1 752,00 zł</t>
   </si>
   <si>
     <t>Anna Nowak</t>
   </si>
   <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>1 224,00 zł</t>
+  </si>
+  <si>
+    <t>1 493,00 zł</t>
+  </si>
+  <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 047,00 zł</t>
-  </si>
-  <si>
-    <t>1 424,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 320,00 zł</t>
+  </si>
+  <si>
+    <t>1 690,00 zł</t>
   </si>
   <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>948,00 zł</t>
-  </si>
-  <si>
-    <t>1 318,00 zł</t>
+    <t>1 013,00 zł</t>
+  </si>
+  <si>
+    <t>1 124,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>978,00 zł</t>
+  </si>
+  <si>
+    <t>1 369,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>1 155,00 zł</t>
+  </si>
+  <si>
+    <t>1 594,00 zł</t>
   </si>
   <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 169,00 zł</t>
-  </si>
-  <si>
-    <t>1 485,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 334,00 zł</t>
-  </si>
-  <si>
-    <t>1 841,00 zł</t>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>702,00 zł</t>
+  </si>
+  <si>
+    <t>969,00 zł</t>
+  </si>
+  <si>
+    <t>1 173,00 zł</t>
+  </si>
+  <si>
+    <t>1 607,00 zł</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>618,00 zł</t>
+  </si>
+  <si>
+    <t>729,00 zł</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>1 443,00 zł</t>
+  </si>
+  <si>
+    <t>2 020,00 zł</t>
+  </si>
+  <si>
+    <t>1 337,00 zł</t>
+  </si>
+  <si>
+    <t>1 658,00 zł</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>1 020,00 zł</t>
+  </si>
+  <si>
+    <t>1 275,00 zł</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 436,00 zł</t>
+  </si>
+  <si>
+    <t>1 709,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>1 338,00 zł</t>
+  </si>
+  <si>
+    <t>1 673,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>766,00 zł</t>
+  </si>
+  <si>
+    <t>912,00 zł</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>849,00 zł</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>1 014,00 zł</t>
+  </si>
+  <si>
+    <t>1 389,00 zł</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 032,00 zł</t>
+  </si>
+  <si>
+    <t>1 373,00 zł</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>800,00 zł</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 255,00 zł</t>
+  </si>
+  <si>
+    <t>1 707,00 zł</t>
+  </si>
+  <si>
+    <t>926,00 zł</t>
+  </si>
+  <si>
+    <t>1 296,00 zł</t>
+  </si>
+  <si>
+    <t>1 078,00 zł</t>
+  </si>
+  <si>
+    <t>1 229,00 zł</t>
   </si>
   <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>648,00 zł</t>
-  </si>
-  <si>
-    <t>901,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 456,00 zł</t>
-  </si>
-  <si>
-    <t>1 762,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 067,00 zł</t>
-  </si>
-  <si>
-    <t>1 462,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 407,00 zł</t>
-  </si>
-  <si>
-    <t>1 745,00 zł</t>
-  </si>
-  <si>
-    <t>1 392,00 zł</t>
-  </si>
-  <si>
-    <t>1 531,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 046,00 zł</t>
-  </si>
-  <si>
-    <t>1 245,00 zł</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>580,00 zł</t>
-  </si>
-  <si>
-    <t>679,00 zł</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>1 166,00 zł</t>
-  </si>
-  <si>
-    <t>1 539,00 zł</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 085,00 zł</t>
-  </si>
-  <si>
-    <t>1 302,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 152,00 zł</t>
-  </si>
-  <si>
-    <t>1 279,00 zł</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 191,00 zł</t>
-  </si>
-  <si>
-    <t>1 322,00 zł</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>1 020,00 zł</t>
-  </si>
-  <si>
-    <t>1 132,00 zł</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>942,00 zł</t>
-  </si>
-  <si>
-    <t>1 281,00 zł</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>1 097,00 zł</t>
-  </si>
-  <si>
-    <t>1 294,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 428,00 zł</t>
-  </si>
-  <si>
-    <t>1 614,00 zł</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>744,00 zł</t>
-  </si>
-  <si>
-    <t>863,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>910,00 zł</t>
-  </si>
-  <si>
-    <t>1 165,00 zł</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>1 252,00 zł</t>
-  </si>
-  <si>
-    <t>1 502,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>1 767,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>728,00 zł</t>
-  </si>
-  <si>
-    <t>932,00 zł</t>
-  </si>
-  <si>
-    <t>1 003,00 zł</t>
-  </si>
-  <si>
-    <t>1 384,00 zł</t>
-  </si>
-  <si>
-    <t>661,00 zł</t>
-  </si>
-  <si>
-    <t>754,00 zł</t>
-  </si>
-  <si>
-    <t>1 312,00 zł</t>
-  </si>
-  <si>
-    <t>1 548,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>1 438,00 zł</t>
-  </si>
-  <si>
-    <t>1 913,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>1 412,00 zł</t>
-  </si>
-  <si>
-    <t>1 652,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
+    <t>1 061,00 zł</t>
+  </si>
+  <si>
+    <t>1 284,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1500,16 +1515,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="D17" s="3">
-        <v>6</v>
-      </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1518,19 +1533,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="F18" s="3">
         <v>6</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1539,19 +1554,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
         <v>3</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
-      <c r="F19" s="3">
-        <v>6</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1563,13 +1578,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="3">
         <v>5</v>
@@ -1581,19 +1596,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4</v>
-      </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1602,19 +1617,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1623,19 +1638,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1644,19 +1659,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1665,7 +1680,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
         <v>4</v>
@@ -1674,10 +1689,10 @@
         <v>4</v>
       </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1686,19 +1701,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="C26" s="3">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="F26" s="3">
         <v>4</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>5</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1710,16 +1725,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
         <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>6</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1728,19 +1743,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
         <v>4</v>
-      </c>
-      <c r="C28" s="3">
-        <v>5</v>
-      </c>
-      <c r="D28" s="3">
-        <v>6</v>
       </c>
       <c r="E28" s="3">
         <v>6</v>
       </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1862,7 +1877,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1877,7 +1892,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1892,7 +1907,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1907,7 +1922,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1922,7 +1937,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1937,7 +1952,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2054,7 +2069,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2066,7 +2081,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2078,7 +2093,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2090,7 +2105,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2102,7 +2117,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2150,7 +2165,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2162,7 +2177,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2171,7 +2186,7 @@
         <v>69</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="3">
         <v>42</v>
@@ -2183,10 +2198,10 @@
         <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2195,10 +2210,10 @@
         <v>73</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2206,7 +2221,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -2218,7 +2233,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2243,10 +2258,10 @@
         <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2255,10 +2270,10 @@
         <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2267,10 +2282,10 @@
         <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2279,10 +2294,10 @@
         <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2291,22 +2306,22 @@
         <v>73</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D40" s="7"/>
     </row>
@@ -2328,10 +2343,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A21" sqref="A21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2352,53 +2367,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -2410,7 +2425,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>24</v>
@@ -2419,40 +2434,40 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>6</v>
       </c>
       <c r="J12" s="3">
         <v>6</v>
@@ -2463,31 +2478,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3">
         <v>6</v>
       </c>
-      <c r="F13" s="3">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3">
-        <v>6</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2</v>
-      </c>
       <c r="J13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2495,31 +2510,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>6</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>4</v>
-      </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2527,31 +2542,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G15" s="3">
         <v>5</v>
       </c>
       <c r="H15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2562,69 +2577,165 @@
         <v>112</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" s="3">
         <v>3</v>
       </c>
       <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
         <v>3</v>
-      </c>
-      <c r="I16" s="3">
-        <v>6</v>
-      </c>
-      <c r="J16" s="3">
-        <v>2</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2652,7 +2763,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2662,243 +2773,243 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="13" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2935,7 +3046,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2945,75 +3056,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3021,22 +3132,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3044,22 +3155,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3067,22 +3178,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3090,22 +3201,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3116,19 +3227,19 @@
         <v>202</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3136,22 +3247,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3159,22 +3270,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3182,22 +3293,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3205,22 +3316,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3228,22 +3339,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3254,19 +3365,19 @@
         <v>202</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3274,22 +3385,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3297,22 +3408,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3320,22 +3431,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3343,22 +3454,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="G30" s="3" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3366,22 +3477,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3389,22 +3500,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3412,22 +3523,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3438,19 +3549,19 @@
         <v>202</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3458,22 +3569,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3481,22 +3592,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3504,22 +3615,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3527,22 +3638,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3550,22 +3661,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>199</v>
+        <v>293</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3573,22 +3684,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>289</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3596,22 +3707,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3619,22 +3730,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3642,22 +3753,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3665,22 +3776,22 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>212</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3688,67 +3799,67 @@
         <v>30</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="13" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_023.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>ZESTAW ZADAŃ NR 23 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 23 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,30</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,50</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>6,00</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>4,90</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>2,10</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>2,00</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>25,82</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>24,19</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>19,43</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>13,81</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>10,99</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>14,01</t>
-  </si>
-  <si>
-    <t>4,72</t>
-  </si>
-  <si>
-    <t>6,52</t>
-  </si>
-  <si>
-    <t>4,44</t>
-  </si>
-  <si>
-    <t>10,37</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>26,16</t>
-  </si>
-  <si>
-    <t>3,08</t>
-  </si>
-  <si>
-    <t>10,86</t>
-  </si>
-  <si>
-    <t>13,32</t>
-  </si>
-  <si>
-    <t>9,67</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -421,144 +343,96 @@
     <t>27.04.2000</t>
   </si>
   <si>
-    <t>3 764,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Kaźmierczak</t>
   </si>
   <si>
     <t>15.01.1998</t>
   </si>
   <si>
-    <t>5 109,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Kubiak</t>
   </si>
   <si>
     <t>10.01.1976</t>
   </si>
   <si>
-    <t>3 611,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Czarnecka</t>
   </si>
   <si>
     <t>10.12.1988</t>
   </si>
   <si>
-    <t>6 306,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Zieliński</t>
   </si>
   <si>
     <t>20.12.1997</t>
   </si>
   <si>
-    <t>14 387,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Kowalski</t>
   </si>
   <si>
     <t>18.02.1983</t>
   </si>
   <si>
-    <t>9 313,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Borkowska</t>
   </si>
   <si>
     <t>24.12.1981</t>
   </si>
   <si>
-    <t>4 637,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Jankowski</t>
   </si>
   <si>
     <t>17.05.2000</t>
   </si>
   <si>
-    <t>6 390,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Piekarska</t>
   </si>
   <si>
     <t>26.12.1986</t>
   </si>
   <si>
-    <t>13 028,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kaczmarek</t>
   </si>
   <si>
     <t>09.05.1986</t>
   </si>
   <si>
-    <t>6 861,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Kowalski</t>
   </si>
   <si>
     <t>22.02.1999</t>
   </si>
   <si>
-    <t>10 775,00 zł</t>
-  </si>
-  <si>
     <t>Anna Sikorska</t>
   </si>
   <si>
     <t>06.07.1997</t>
   </si>
   <si>
-    <t>3 907,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Lis</t>
   </si>
   <si>
     <t>11.02.1983</t>
   </si>
   <si>
-    <t>8 871,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Szymański</t>
   </si>
   <si>
     <t>07.11.1987</t>
   </si>
   <si>
-    <t>2 813,00 zł</t>
-  </si>
-  <si>
     <t>Lena Król</t>
   </si>
   <si>
     <t>21.04.1997</t>
   </si>
   <si>
-    <t>6 684,00 zł</t>
-  </si>
-  <si>
     <t>Lena Czarnecka</t>
   </si>
   <si>
     <t>22.09.2002</t>
   </si>
   <si>
-    <t>7 467,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -571,9 +445,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -634,12 +505,6 @@
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 010,00 zł</t>
-  </si>
-  <si>
-    <t>1 212,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -652,12 +517,6 @@
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 440,00 zł</t>
-  </si>
-  <si>
-    <t>1 800,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -667,12 +526,6 @@
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>512,00 zł</t>
-  </si>
-  <si>
-    <t>686,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -682,12 +535,6 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>576,00 zł</t>
-  </si>
-  <si>
-    <t>778,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -697,12 +544,6 @@
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 291,00 zł</t>
-  </si>
-  <si>
-    <t>1 446,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -715,21 +556,9 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 087,00 zł</t>
-  </si>
-  <si>
-    <t>1 294,00 zł</t>
-  </si>
-  <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 138,00 zł</t>
-  </si>
-  <si>
-    <t>1 286,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -739,45 +568,21 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 298,00 zł</t>
-  </si>
-  <si>
-    <t>1 752,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
     <t>luty</t>
   </si>
   <si>
-    <t>1 224,00 zł</t>
-  </si>
-  <si>
-    <t>1 493,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 320,00 zł</t>
-  </si>
-  <si>
-    <t>1 690,00 zł</t>
-  </si>
-  <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 013,00 zł</t>
-  </si>
-  <si>
-    <t>1 124,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -787,24 +592,12 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>978,00 zł</t>
-  </si>
-  <si>
-    <t>1 369,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>dolnośląskie</t>
   </si>
   <si>
-    <t>1 155,00 zł</t>
-  </si>
-  <si>
-    <t>1 594,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -814,69 +607,21 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>702,00 zł</t>
-  </si>
-  <si>
-    <t>969,00 zł</t>
-  </si>
-  <si>
-    <t>1 173,00 zł</t>
-  </si>
-  <si>
-    <t>1 607,00 zł</t>
-  </si>
-  <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
-    <t>618,00 zł</t>
-  </si>
-  <si>
-    <t>729,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
-    <t>1 443,00 zł</t>
-  </si>
-  <si>
-    <t>2 020,00 zł</t>
-  </si>
-  <si>
-    <t>1 337,00 zł</t>
-  </si>
-  <si>
-    <t>1 658,00 zł</t>
-  </si>
-  <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>1 020,00 zł</t>
-  </si>
-  <si>
-    <t>1 275,00 zł</t>
-  </si>
-  <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 436,00 zł</t>
-  </si>
-  <si>
-    <t>1 709,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
-    <t>1 338,00 zł</t>
-  </si>
-  <si>
-    <t>1 673,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -886,42 +631,18 @@
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>766,00 zł</t>
-  </si>
-  <si>
-    <t>912,00 zł</t>
-  </si>
-  <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
-    <t>849,00 zł</t>
-  </si>
-  <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>1 014,00 zł</t>
-  </si>
-  <si>
-    <t>1 389,00 zł</t>
-  </si>
-  <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 032,00 zł</t>
-  </si>
-  <si>
-    <t>1 373,00 zł</t>
-  </si>
-  <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>800,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
@@ -931,31 +652,7 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 255,00 zł</t>
-  </si>
-  <si>
-    <t>1 707,00 zł</t>
-  </si>
-  <si>
-    <t>926,00 zł</t>
-  </si>
-  <si>
-    <t>1 296,00 zł</t>
-  </si>
-  <si>
-    <t>1 078,00 zł</t>
-  </si>
-  <si>
-    <t>1 229,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>1 061,00 zł</t>
-  </si>
-  <si>
-    <t>1 284,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -977,7 +674,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1034,14 +733,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1052,8 +751,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1084,30 +783,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1410,7 +1110,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1485,25 +1185,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1526,7 +1226,7 @@
       <c r="F17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1547,7 +1247,7 @@
       <c r="F18" s="3">
         <v>6</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1568,7 +1268,7 @@
       <c r="F19" s="3">
         <v>3</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1589,7 +1289,7 @@
       <c r="F20" s="3">
         <v>5</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1610,7 +1310,7 @@
       <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1631,7 +1331,7 @@
       <c r="F22" s="3">
         <v>6</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1652,7 +1352,7 @@
       <c r="F23" s="3">
         <v>4</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1673,7 +1373,7 @@
       <c r="F24" s="3">
         <v>5</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1694,7 +1394,7 @@
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1715,7 +1415,7 @@
       <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1736,7 +1436,7 @@
       <c r="F27" s="3">
         <v>5</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1757,27 +1457,17 @@
       <c r="F28" s="3">
         <v>6</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1811,7 +1501,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1831,7 +1521,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1841,29 +1531,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1871,99 +1561,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2.3</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.5</v>
       </c>
       <c r="D14" s="3">
         <v>9</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4.9</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2.1</v>
       </c>
       <c r="D17" s="3">
         <v>7</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1996,7 +1686,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2021,113 +1711,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>25.82</v>
       </c>
       <c r="C15" s="3">
         <v>48</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>24.19</v>
       </c>
       <c r="C16" s="3">
         <v>22</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>19.43</v>
       </c>
       <c r="C17" s="3">
         <v>23</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>13.81</v>
       </c>
       <c r="C18" s="3">
         <v>26</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>10.99</v>
       </c>
       <c r="C19" s="3">
         <v>34</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2136,94 +1826,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>14.0099999999999998</v>
       </c>
       <c r="C24" s="3">
         <v>39</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4.72</v>
       </c>
       <c r="C25" s="3">
         <v>28</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>6.52</v>
       </c>
       <c r="C26" s="3">
         <v>42</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>4.44</v>
       </c>
       <c r="C27" s="3">
         <v>23</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>10.37</v>
       </c>
       <c r="C28" s="3">
         <v>23</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2232,98 +1922,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>26.16</v>
       </c>
       <c r="C33" s="3">
         <v>22</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3.08</v>
       </c>
       <c r="C34" s="3">
         <v>45</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>10.86</v>
       </c>
       <c r="C35" s="3">
         <v>27</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>13.32</v>
       </c>
       <c r="C36" s="3">
         <v>38</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>9.67</v>
       </c>
       <c r="C37" s="3">
         <v>48</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2346,7 +2036,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2366,90 +2056,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
@@ -2472,16 +2162,16 @@
       <c r="J12" s="3">
         <v>6</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -2504,16 +2194,16 @@
       <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
@@ -2536,16 +2226,16 @@
       <c r="J14" s="3">
         <v>2</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
@@ -2568,16 +2258,16 @@
       <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -2600,16 +2290,16 @@
       <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
@@ -2632,16 +2322,16 @@
       <c r="J17" s="3">
         <v>2</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
@@ -2664,16 +2354,16 @@
       <c r="J18" s="3">
         <v>6</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3">
         <v>6</v>
@@ -2696,40 +2386,40 @@
       <c r="J19" s="3">
         <v>2</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2762,255 +2452,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>122</v>
+      <c r="A1" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>130</v>
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3764</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="7">
+        <v>5109</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3611</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="7">
+        <v>6306</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="C15" s="7">
+        <v>14387</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
+      </c>
+      <c r="C16" s="7">
+        <v>9313</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4637</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
+      </c>
+      <c r="C18" s="7">
+        <v>6390</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="C19" s="7">
+        <v>13028</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6861</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
+      </c>
+      <c r="C21" s="7">
+        <v>10775</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3907</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
+      </c>
+      <c r="C23" s="7">
+        <v>8871</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>172</v>
+        <v>132</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2813</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>175</v>
+        <v>134</v>
+      </c>
+      <c r="C25" s="7">
+        <v>6684</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>178</v>
+        <v>136</v>
+      </c>
+      <c r="C26" s="7">
+        <v>7467</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
-        <v>179</v>
+      <c r="A29" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B32" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3045,86 +2729,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>184</v>
+      <c r="A1" s="15" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>201</v>
+      <c r="A15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3132,22 +2816,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1010</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1212</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3155,22 +2839,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1440</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1800</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3178,22 +2862,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
+      </c>
+      <c r="D18" s="7">
+        <v>512</v>
+      </c>
+      <c r="E18" s="7">
+        <v>686</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3201,22 +2885,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
+      </c>
+      <c r="D19" s="7">
+        <v>576</v>
+      </c>
+      <c r="E19" s="7">
+        <v>778</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3224,22 +2908,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1291</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1446</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3247,22 +2931,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>232</v>
+        <v>177</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1087</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1294</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3270,22 +2954,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>235</v>
+        <v>178</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1138</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1286</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3293,22 +2977,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>240</v>
+        <v>181</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1298</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1752</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3316,22 +3000,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>244</v>
+        <v>170</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1224</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1493</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3339,22 +3023,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>248</v>
+        <v>185</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1320</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1690</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3362,22 +3046,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>251</v>
+        <v>186</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1013</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1124</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3385,22 +3069,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>256</v>
+        <v>189</v>
+      </c>
+      <c r="D27" s="7">
+        <v>978</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1369</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3408,22 +3092,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>260</v>
+        <v>181</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1155</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1594</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3431,22 +3115,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>265</v>
+        <v>194</v>
+      </c>
+      <c r="D29" s="7">
+        <v>702</v>
+      </c>
+      <c r="E29" s="7">
+        <v>969</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3454,22 +3138,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>267</v>
+        <v>170</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1173</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1607</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3477,22 +3161,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>270</v>
+        <v>167</v>
+      </c>
+      <c r="D31" s="7">
+        <v>618</v>
+      </c>
+      <c r="E31" s="7">
+        <v>729</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3500,22 +3184,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>273</v>
+        <v>167</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1443</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2020</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3523,22 +3207,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>275</v>
+        <v>189</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1337</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1658</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3546,22 +3230,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>278</v>
+        <v>197</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1020</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1275</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3569,22 +3253,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>281</v>
+        <v>198</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1436</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1709</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3592,22 +3276,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>284</v>
+        <v>194</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1338</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1673</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3615,22 +3299,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>289</v>
+        <v>202</v>
+      </c>
+      <c r="D37" s="7">
+        <v>766</v>
+      </c>
+      <c r="E37" s="7">
+        <v>912</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>290</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3638,22 +3322,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>259</v>
+        <v>173</v>
+      </c>
+      <c r="D38" s="7">
+        <v>849</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1155</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3661,22 +3345,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>294</v>
+        <v>194</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1014</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1389</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3684,22 +3368,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>297</v>
+        <v>205</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1032</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1373</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3707,22 +3391,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>289</v>
+        <v>206</v>
+      </c>
+      <c r="D41" s="7">
+        <v>800</v>
+      </c>
+      <c r="E41" s="7">
+        <v>912</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>300</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3730,22 +3414,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>301</v>
+        <v>208</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>304</v>
+        <v>209</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1255</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1707</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3753,22 +3437,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>306</v>
+        <v>189</v>
+      </c>
+      <c r="D43" s="7">
+        <v>926</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1296</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3776,22 +3460,22 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>308</v>
+        <v>186</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1078</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1229</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3799,68 +3483,58 @@
         <v>30</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>311</v>
+        <v>178</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1061</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1284</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="13" t="s">
-        <v>179</v>
+      <c r="A48" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>312</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>313</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>314</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>315</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>316</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B53" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_023.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_023.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>ZESTAW ZADAŃ NR 23 - CZĘŚĆ 1</t>
   </si>
@@ -61,391 +62,394 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Amelia Kaźmierczak</t>
+    <t>Aleksander Zieliński</t>
+  </si>
+  <si>
+    <t>Lena Król</t>
+  </si>
+  <si>
+    <t>Adam Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Emilia Lis</t>
+  </si>
+  <si>
+    <t>Jakub Wójcik</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 23 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 23 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Olszewska</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Sadowska</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Czarnecka</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Malinowska</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Wojciech Woźniak</t>
+  </si>
+  <si>
+    <t>Jakub Dąbrowski</t>
+  </si>
+  <si>
+    <t>Antoni Wiśniewski</t>
+  </si>
+  <si>
+    <t>Szymon Kowalski</t>
+  </si>
+  <si>
+    <t>Kacper Woźniak</t>
+  </si>
+  <si>
+    <t>Filip Mazur</t>
+  </si>
+  <si>
+    <t>Anna Lis</t>
+  </si>
+  <si>
+    <t>Aleksander Kowalski</t>
+  </si>
+  <si>
+    <t>Lena Kubiak</t>
+  </si>
+  <si>
+    <t>Julia Wójcik</t>
+  </si>
+  <si>
+    <t>Wojciech Grabowski</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Zuzanna Zawadzka</t>
+  </si>
+  <si>
+    <t>Mikołaj Kamiński</t>
+  </si>
+  <si>
+    <t>Emilia Zawadzka</t>
+  </si>
+  <si>
+    <t>Filip Kamiński</t>
+  </si>
+  <si>
+    <t>Oliwia Lis</t>
+  </si>
+  <si>
+    <t>Natalia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Wojciech Lewandowski</t>
+  </si>
+  <si>
+    <t>Jakub Jankowski</t>
+  </si>
+  <si>
+    <t>Maja Król</t>
+  </si>
+  <si>
+    <t>Zuzanna Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Amelia Bednarska</t>
+  </si>
+  <si>
+    <t>Jakub Kowalski</t>
   </si>
   <si>
     <t>Mikołaj Wiśniewski</t>
   </si>
   <si>
-    <t>Zuzanna Bednarska</t>
-  </si>
-  <si>
-    <t>Lena Górska</t>
-  </si>
-  <si>
-    <t>Szymon Mazur</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 23 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 23 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Lewandowski</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Borkowska</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Kozłowski</t>
-  </si>
-  <si>
-    <t>Grabowski</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Górska</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Anna Wilk</t>
-  </si>
-  <si>
-    <t>27.04.2000</t>
-  </si>
-  <si>
-    <t>Oliwia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>15.01.1998</t>
-  </si>
-  <si>
-    <t>Emilia Kubiak</t>
-  </si>
-  <si>
-    <t>10.01.1976</t>
-  </si>
-  <si>
-    <t>Zuzanna Czarnecka</t>
-  </si>
-  <si>
-    <t>10.12.1988</t>
-  </si>
-  <si>
-    <t>Jakub Zieliński</t>
-  </si>
-  <si>
-    <t>20.12.1997</t>
-  </si>
-  <si>
-    <t>Aleksander Kowalski</t>
-  </si>
-  <si>
-    <t>18.02.1983</t>
-  </si>
-  <si>
-    <t>Amelia Borkowska</t>
-  </si>
-  <si>
-    <t>24.12.1981</t>
-  </si>
-  <si>
-    <t>Kacper Jankowski</t>
-  </si>
-  <si>
-    <t>17.05.2000</t>
-  </si>
-  <si>
-    <t>Natalia Piekarska</t>
-  </si>
-  <si>
-    <t>26.12.1986</t>
-  </si>
-  <si>
-    <t>Jan Kaczmarek</t>
-  </si>
-  <si>
-    <t>09.05.1986</t>
-  </si>
-  <si>
-    <t>Antoni Kowalski</t>
-  </si>
-  <si>
-    <t>22.02.1999</t>
-  </si>
-  <si>
-    <t>Anna Sikorska</t>
-  </si>
-  <si>
-    <t>06.07.1997</t>
-  </si>
-  <si>
-    <t>Hanna Lis</t>
-  </si>
-  <si>
-    <t>11.02.1983</t>
-  </si>
-  <si>
-    <t>Kacper Szymański</t>
-  </si>
-  <si>
-    <t>07.11.1987</t>
-  </si>
-  <si>
-    <t>Lena Król</t>
-  </si>
-  <si>
-    <t>21.04.1997</t>
-  </si>
-  <si>
-    <t>Lena Czarnecka</t>
-  </si>
-  <si>
-    <t>22.09.2002</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Jakub Kamiński</t>
+  </si>
+  <si>
+    <t>Julia Król</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -499,160 +503,154 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
     <t>styczeń</t>
   </si>
   <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>Tomasz Kamiński</t>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
   </si>
   <si>
     <t>małopolskie</t>
   </si>
   <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
   </si>
   <si>
     <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -724,7 +722,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,12 +745,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -783,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -794,13 +786,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1107,7 +1098,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1215,16 +1206,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1233,19 +1224,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
         <v>6</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
       </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1254,19 +1245,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
         <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1278,16 +1269,16 @@
         <v>6</v>
       </c>
       <c r="C20" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1296,19 +1287,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3">
         <v>2</v>
       </c>
-      <c r="C21" s="3">
+      <c r="F21" s="3">
         <v>6</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1317,19 +1308,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1341,16 +1332,16 @@
         <v>2</v>
       </c>
       <c r="C23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1359,19 +1350,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
-        <v>5</v>
-      </c>
       <c r="D24" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E24" s="3">
+        <v>6</v>
+      </c>
+      <c r="F24" s="3">
         <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1380,19 +1371,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3">
         <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>4</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
-      <c r="F25" s="3">
-        <v>6</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1404,13 +1395,13 @@
         <v>4</v>
       </c>
       <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
         <v>4</v>
       </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
       <c r="E26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="3">
         <v>4</v>
@@ -1422,19 +1413,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
         <v>4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3</v>
       </c>
       <c r="D27" s="3">
         <v>2</v>
       </c>
       <c r="E27" s="3">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
         <v>2</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1443,19 +1434,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3">
         <v>3</v>
-      </c>
-      <c r="D28" s="3">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3">
-        <v>6</v>
-      </c>
-      <c r="F28" s="3">
-        <v>6</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1468,6 +1459,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1501,7 +1498,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1521,7 +1518,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1531,29 +1528,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1561,99 +1558,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2.3</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.2</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1.5</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4.1</v>
       </c>
       <c r="D14" s="3">
-        <v>9</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>11.6</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4.9</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4.2</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2.1</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>7.6</v>
       </c>
       <c r="D17" s="3">
-        <v>7</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>6.3</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1670,10 +1667,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1686,7 +1683,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1711,27 +1708,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1739,85 +1736,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>25.82</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>11.99</v>
       </c>
       <c r="C15" s="3">
         <v>48</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>24.19</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>5.56</v>
       </c>
       <c r="C16" s="3">
-        <v>22</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>19.43</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>26.98</v>
       </c>
       <c r="C17" s="3">
-        <v>23</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>13.81</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>4.87</v>
       </c>
       <c r="C18" s="3">
-        <v>26</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>10.99</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>27.61</v>
       </c>
       <c r="C19" s="3">
-        <v>34</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1826,8 +1823,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1835,85 +1832,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>14.0099999999999998</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>29.57</v>
       </c>
       <c r="C24" s="3">
-        <v>39</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>4.72</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>20.86</v>
       </c>
       <c r="C25" s="3">
-        <v>28</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>6.52</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>22.059999999999999</v>
       </c>
       <c r="C26" s="3">
-        <v>42</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>4.44</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>16.26</v>
       </c>
       <c r="C27" s="3">
-        <v>23</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>10.37</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3.79</v>
       </c>
       <c r="C28" s="3">
-        <v>23</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1922,8 +1919,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1931,89 +1928,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>26.16</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>29.059999999999999</v>
       </c>
       <c r="C33" s="3">
-        <v>22</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>3.08</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>6.17</v>
       </c>
       <c r="C34" s="3">
-        <v>45</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>10.86</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>4.78</v>
       </c>
       <c r="C35" s="3">
-        <v>27</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>13.32</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>3.63</v>
       </c>
       <c r="C36" s="3">
-        <v>38</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>9.67</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>9.06</v>
       </c>
       <c r="C37" s="3">
-        <v>48</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2056,111 +2061,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
       </c>
       <c r="F12" s="3">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6</v>
+      </c>
+      <c r="J12" s="3">
         <v>5</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3">
-        <v>2</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2168,7 +2173,7 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>83</v>
@@ -2177,22 +2182,22 @@
         <v>3</v>
       </c>
       <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="3">
+      <c r="H13" s="3">
+        <v>4</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3">
         <v>3</v>
-      </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3">
-        <v>5</v>
-      </c>
-      <c r="I13" s="3">
-        <v>6</v>
-      </c>
-      <c r="J13" s="3">
-        <v>4</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2200,28 +2205,28 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3">
         <v>2</v>
@@ -2232,31 +2237,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
       </c>
       <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>5</v>
-      </c>
       <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
         <v>2</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2264,31 +2269,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3">
         <v>3</v>
       </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="J16" s="3">
         <v>2</v>
-      </c>
-      <c r="I16" s="3">
-        <v>2</v>
-      </c>
-      <c r="J16" s="3">
-        <v>3</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2296,31 +2301,31 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
         <v>3</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4</v>
       </c>
       <c r="I17" s="3">
         <v>3</v>
       </c>
       <c r="J17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -2328,31 +2333,31 @@
     <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
         <v>6</v>
       </c>
-      <c r="E18" s="3">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
       <c r="G18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" s="3">
         <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -2360,28 +2365,28 @@
     <row r="19" spans="1:12">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D19" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" s="3">
         <v>3</v>
       </c>
       <c r="I19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3">
         <v>2</v>
@@ -2391,7 +2396,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2407,7 +2412,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2438,10 +2443,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A30" sqref="A30:B32"/>
+      <selection activeCell="A26" sqref="A26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2452,249 +2457,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>96</v>
+      <c r="A1" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="7">
-        <v>3764</v>
+        <v>107</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C11" s="8">
+        <v>13837</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="7">
-        <v>5109</v>
+      <c r="B12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10255</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3611</v>
+      <c r="B13" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C13" s="8">
+        <v>7877</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="7">
-        <v>6306</v>
+        <v>110</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C14" s="8">
+        <v>10202</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="7">
-        <v>14387</v>
+        <v>110</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C15" s="8">
+        <v>12172</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="7">
-        <v>9313</v>
+        <v>111</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C16" s="8">
+        <v>12906</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="7">
-        <v>4637</v>
+        <v>112</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C17" s="8">
+        <v>14696</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="7">
-        <v>6390</v>
+        <v>113</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5033</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="7">
-        <v>13028</v>
+        <v>114</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C19" s="8">
+        <v>14036</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="7">
-        <v>6861</v>
+        <v>115</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C20" s="8">
+        <v>12862</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="7">
-        <v>10775</v>
+        <v>116</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C21" s="8">
+        <v>9913</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="7">
-        <v>3907</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="7">
-        <v>8871</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2813</v>
+        <v>117</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C22" s="8">
+        <v>7452</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="7">
-        <v>6684</v>
+      <c r="A25" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="7">
-        <v>7467</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="6"/>
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2707,6 +2668,217 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A10" sqref="A10:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="3">
+        <v>156</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="3">
+        <v>141</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="3">
+        <v>160</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="3">
+        <v>95</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="3">
+        <v>184</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="3">
+        <v>184</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3">
+        <v>183</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="3">
+        <v>147</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="3">
+        <v>115</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="3">
+        <v>136</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="3">
+        <v>156</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="3">
+        <v>194</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="3">
+        <v>165</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="3">
+        <v>190</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3">
+        <v>157</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="3">
+        <v>135</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2729,86 +2901,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>141</v>
+      <c r="A1" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2816,22 +2988,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1010</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1212</v>
+        <v>161</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1306</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1724</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2839,22 +3011,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1440</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1800</v>
+        <v>165</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1318</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1476</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2862,22 +3034,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="7">
-        <v>512</v>
-      </c>
-      <c r="E18" s="7">
-        <v>686</v>
+        <v>169</v>
+      </c>
+      <c r="D18" s="8">
+        <v>712</v>
+      </c>
+      <c r="E18" s="8">
+        <v>926</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2885,22 +3057,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="7">
-        <v>576</v>
-      </c>
-      <c r="E19" s="7">
-        <v>778</v>
+        <v>173</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1281</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1601</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2908,22 +3080,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1291</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1446</v>
+        <v>177</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1193</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1551</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2934,19 +3106,19 @@
         <v>176</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1087</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1294</v>
+        <v>169</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1162</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1336</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2954,19 +3126,19 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1138</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1286</v>
+        <v>161</v>
+      </c>
+      <c r="D22" s="8">
+        <v>832</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1082</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>180</v>
@@ -2977,22 +3149,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="7">
-        <v>1298</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1752</v>
+      <c r="D23" s="8">
+        <v>1353</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1624</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3000,22 +3172,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1224</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1493</v>
+      <c r="D24" s="8">
+        <v>1237</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1373</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3023,22 +3195,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1320</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1690</v>
+        <v>183</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1141</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1540</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3046,22 +3218,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D26" s="7">
-        <v>1013</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1124</v>
+      <c r="D26" s="8">
+        <v>1463</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1799</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3069,22 +3241,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1051</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1198</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D27" s="7">
-        <v>978</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1369</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="G27" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3092,22 +3264,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1155</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1594</v>
+        <v>191</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1238</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1721</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3115,22 +3287,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D29" s="7">
-        <v>702</v>
-      </c>
-      <c r="E29" s="7">
-        <v>969</v>
+        <v>161</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1261</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1412</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3138,22 +3310,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1173</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1607</v>
+      <c r="D30" s="8">
+        <v>1359</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1508</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3161,22 +3333,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="7">
-        <v>618</v>
-      </c>
-      <c r="E31" s="7">
-        <v>729</v>
+        <v>165</v>
+      </c>
+      <c r="D31" s="8">
+        <v>982</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1119</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3184,22 +3356,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1443</v>
-      </c>
-      <c r="E32" s="7">
-        <v>2020</v>
+        <v>194</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1311</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1521</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3207,22 +3379,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1337</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1658</v>
+        <v>196</v>
+      </c>
+      <c r="D33" s="8">
+        <v>652</v>
+      </c>
+      <c r="E33" s="8">
+        <v>900</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3230,22 +3402,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1020</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1275</v>
+        <v>199</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1069</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1283</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3253,22 +3425,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1436</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1709</v>
+        <v>177</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1089</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1394</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3276,22 +3448,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1338</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1673</v>
+        <v>200</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1463</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1668</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3299,19 +3471,19 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" s="7">
-        <v>766</v>
-      </c>
-      <c r="E37" s="7">
-        <v>912</v>
+        <v>191</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1029</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1327</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>203</v>
@@ -3322,22 +3494,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="7">
-        <v>849</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1155</v>
+        <v>204</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1257</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1408</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3345,22 +3517,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1014</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1389</v>
+        <v>186</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1077</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1206</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3368,22 +3540,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1032</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1373</v>
+        <v>161</v>
+      </c>
+      <c r="D40" s="8">
+        <v>808</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1002</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3391,22 +3563,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D41" s="7">
-        <v>800</v>
-      </c>
-      <c r="E41" s="7">
-        <v>912</v>
+      <c r="D41" s="8">
+        <v>1380</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1808</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3414,22 +3586,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1255</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1707</v>
+        <v>200</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1335</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1736</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3437,22 +3609,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D43" s="7">
-        <v>926</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1296</v>
+        <v>191</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1363</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1581</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3460,22 +3632,22 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1078</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1229</v>
+        <v>193</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1133</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1552</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3483,58 +3655,58 @@
         <v>30</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" s="7">
-        <v>1061</v>
-      </c>
-      <c r="E45" s="7">
-        <v>1284</v>
+        <v>209</v>
+      </c>
+      <c r="D45" s="8">
+        <v>786</v>
+      </c>
+      <c r="E45" s="8">
+        <v>872</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="17" t="s">
-        <v>137</v>
+      <c r="A48" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>211</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>212</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>213</v>
-      </c>
-      <c r="B51" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="B51" s="7"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>214</v>
-      </c>
-      <c r="B52" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>215</v>
-      </c>
-      <c r="B53" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="B53" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
